--- a/Helicopter.java/target/classes/Helicopter_List.xlsx
+++ b/Helicopter.java/target/classes/Helicopter_List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommie.walker\IdeaProjects\Helicopter.java\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommie.walker\IdeaProjects\RSI-Vuelo\Helicopter.java\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,41 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Chinook</t>
   </si>
   <si>
-    <t>CH-47D Chinook</t>
-  </si>
-  <si>
-    <t>TH-57 Sea Ranger</t>
-  </si>
-  <si>
-    <t>SH-60 Sea Hawk</t>
-  </si>
-  <si>
-    <t>MH-6 Little Bird</t>
-  </si>
-  <si>
-    <t>Cobra</t>
-  </si>
-  <si>
-    <t>AH-1W Super Cobra</t>
-  </si>
-  <si>
-    <t>UH-60A Black Hawk</t>
-  </si>
-  <si>
     <t>Black Hawk</t>
   </si>
   <si>
-    <t>Sea Hawk</t>
-  </si>
-  <si>
-    <t>Little Bird</t>
-  </si>
-  <si>
     <t>Sea Ranger</t>
   </si>
   <si>
@@ -80,30 +53,18 @@
     <t>height</t>
   </si>
   <si>
-    <t>Engin Type</t>
-  </si>
-  <si>
     <t>max speed</t>
   </si>
   <si>
     <t>Endurance</t>
   </si>
   <si>
-    <t xml:space="preserve">126 knots </t>
-  </si>
-  <si>
     <t>UH-60A</t>
   </si>
   <si>
     <t>17 ft / 5.18m</t>
   </si>
   <si>
-    <t>64 ft, 10 in / 19.76m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 ft, 3 in </t>
-  </si>
-  <si>
     <t>capacity weight</t>
   </si>
   <si>
@@ -146,9 +107,6 @@
     <t>31 feet (9.44 m)</t>
   </si>
   <si>
-    <t>redo first 2</t>
-  </si>
-  <si>
     <t>55 ft 10 in (17.02 m)</t>
   </si>
   <si>
@@ -170,14 +128,125 @@
     <t>62 ft 0 in (18.90 m)</t>
   </si>
   <si>
-    <t>..3</t>
+    <t>Engine Type</t>
+  </si>
+  <si>
+    <t>Cougar</t>
+  </si>
+  <si>
+    <t>AS 532</t>
+  </si>
+  <si>
+    <t>61.4 ft</t>
+  </si>
+  <si>
+    <t>15.1 ft</t>
+  </si>
+  <si>
+    <t>53.1 ft</t>
+  </si>
+  <si>
+    <t>173 mph</t>
+  </si>
+  <si>
+    <t>21495 lb</t>
+  </si>
+  <si>
+    <t>S-61</t>
+  </si>
+  <si>
+    <t>HAS Mk.5</t>
+  </si>
+  <si>
+    <t>54.8 ft</t>
+  </si>
+  <si>
+    <t>16.8ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21495 lb</t>
+  </si>
+  <si>
+    <t>166 mph</t>
+  </si>
+  <si>
+    <t>15.5 ft</t>
+  </si>
+  <si>
+    <t>130 mph</t>
+  </si>
+  <si>
+    <t>20999 lb</t>
+  </si>
+  <si>
+    <t>Sikorsky</t>
+  </si>
+  <si>
+    <t>MH-35M</t>
+  </si>
+  <si>
+    <t>46,000 lb</t>
+  </si>
+  <si>
+    <t>88 ft, 28  m</t>
+  </si>
+  <si>
+    <t>25 ft (28 m)</t>
+  </si>
+  <si>
+    <t>72 ft (21.9 m)</t>
+  </si>
+  <si>
+    <t>HC.2</t>
+  </si>
+  <si>
+    <t>50,000 lb</t>
+  </si>
+  <si>
+    <t>30.1 m</t>
+  </si>
+  <si>
+    <t>5.7 m</t>
+  </si>
+  <si>
+    <t>18.3 m</t>
+  </si>
+  <si>
+    <t>183 mph</t>
+  </si>
+  <si>
+    <t>SH-3</t>
+  </si>
+  <si>
+    <t>22,050 lb</t>
+  </si>
+  <si>
+    <t>16.7 m</t>
+  </si>
+  <si>
+    <t>5.13 m</t>
+  </si>
+  <si>
+    <t>19 m</t>
+  </si>
+  <si>
+    <t>20250 lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 ft, 8 in </t>
+  </si>
+  <si>
+    <t>50 ft 1 in (15.27 m)</t>
+  </si>
+  <si>
+    <t>126 knots  (183 mph)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +270,14 @@
       <color rgb="FF444444"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,14 +299,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,315 +604,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="b">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
